--- a/data/first-round-teams.xlsx
+++ b/data/first-round-teams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeh5663/Documents/creative-data-visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeh5663/Documents/creative-data-visualization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E958156-C52A-0546-883C-1D7D90C4D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B132E-175C-424A-8C7C-3B067821CDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{E9232C9B-64E5-814C-99DA-0B85B2C189F5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="149">
   <si>
     <t>Seed</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Mascot</t>
   </si>
   <si>
-    <t>Conference</t>
-  </si>
-  <si>
     <t>Record</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>Blue Devil</t>
   </si>
   <si>
-    <t>ACC</t>
-  </si>
-  <si>
     <t>31–3</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>Elephant</t>
   </si>
   <si>
-    <t>SEC</t>
-  </si>
-  <si>
     <t>25–8</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>Badger</t>
   </si>
   <si>
-    <t>Big Ten</t>
-  </si>
-  <si>
     <t>26–9</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>Wildcat</t>
   </si>
   <si>
-    <t>Big 12</t>
-  </si>
-  <si>
     <t>22–12</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
     <t>Gael</t>
   </si>
   <si>
-    <t>WCC</t>
-  </si>
-  <si>
     <t>28–5</t>
   </si>
   <si>
@@ -166,9 +148,6 @@
     <t>Ram</t>
   </si>
   <si>
-    <t>Atlantic 10</t>
-  </si>
-  <si>
     <t>28–6</t>
   </si>
   <si>
@@ -178,24 +157,15 @@
     <t>Eagle</t>
   </si>
   <si>
-    <t>C-USA</t>
-  </si>
-  <si>
     <t>Akron</t>
   </si>
   <si>
     <t>Kangaroo</t>
   </si>
   <si>
-    <t>MAC</t>
-  </si>
-  <si>
     <t>Montana</t>
   </si>
   <si>
-    <t>Big Sky</t>
-  </si>
-  <si>
     <t>25–9</t>
   </si>
   <si>
@@ -205,9 +175,6 @@
     <t>Colonial</t>
   </si>
   <si>
-    <t>Horizon</t>
-  </si>
-  <si>
     <t>26–8</t>
   </si>
   <si>
@@ -217,9 +184,6 @@
     <t>Mountaineer</t>
   </si>
   <si>
-    <t>MAAC</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -238,9 +202,6 @@
     <t>Thunderbird</t>
   </si>
   <si>
-    <t>Big East</t>
-  </si>
-  <si>
     <t>Texas Tech</t>
   </si>
   <si>
@@ -259,9 +220,6 @@
     <t>Tiger</t>
   </si>
   <si>
-    <t>American</t>
-  </si>
-  <si>
     <t>29–5</t>
   </si>
   <si>
@@ -304,30 +262,18 @@
     <t>Drake</t>
   </si>
   <si>
-    <t>Missouri Valley</t>
-  </si>
-  <si>
     <t>30–3</t>
   </si>
   <si>
-    <t>CAA</t>
-  </si>
-  <si>
     <t>Colorado State</t>
   </si>
   <si>
-    <t>Mountain West</t>
-  </si>
-  <si>
     <t>Grand Canyon</t>
   </si>
   <si>
     <t>Antelope</t>
   </si>
   <si>
-    <t>WAC</t>
-  </si>
-  <si>
     <t>26–7</t>
   </si>
   <si>
@@ -343,9 +289,6 @@
     <t>Omaha</t>
   </si>
   <si>
-    <t>Summit</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -355,9 +298,6 @@
     <t>Spartan</t>
   </si>
   <si>
-    <t>MEAC</t>
-  </si>
-  <si>
     <t>24–10</t>
   </si>
   <si>
@@ -430,15 +370,9 @@
     <t>Triton</t>
   </si>
   <si>
-    <t>Big West</t>
-  </si>
-  <si>
     <t>Yale</t>
   </si>
   <si>
-    <t>Ivy</t>
-  </si>
-  <si>
     <t>22–7</t>
   </si>
   <si>
@@ -448,15 +382,9 @@
     <t>Bison</t>
   </si>
   <si>
-    <t>ASUN</t>
-  </si>
-  <si>
     <t>Bryant</t>
   </si>
   <si>
-    <t>America East</t>
-  </si>
-  <si>
     <t>23–11</t>
   </si>
   <si>
@@ -466,9 +394,6 @@
     <t>Hornet</t>
   </si>
   <si>
-    <t>SWAC</t>
-  </si>
-  <si>
     <t>19–15</t>
   </si>
   <si>
@@ -526,37 +451,22 @@
     <t>Cowboy</t>
   </si>
   <si>
-    <t>Southland</t>
-  </si>
-  <si>
     <t>High Point</t>
   </si>
   <si>
     <t>Panther</t>
   </si>
   <si>
-    <t>Big South</t>
-  </si>
-  <si>
     <t>Troy</t>
   </si>
   <si>
     <t>Trojan</t>
   </si>
   <si>
-    <t>Sun Belt</t>
-  </si>
-  <si>
     <t>Wofford</t>
   </si>
   <si>
-    <t>Southern</t>
-  </si>
-  <si>
     <t>SIU Edwardsville</t>
-  </si>
-  <si>
-    <t>Ohio Valley</t>
   </si>
 </sst>
 </file>
@@ -1417,15 +1327,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C407D6D0-3071-B643-BC52-EDFF8D80980E}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L65"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1450,1864 +1360,1669 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2024</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>2024</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
-        <v>2024</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>2024</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="E4">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>2024</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>2024</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>2024</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>2024</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="E6">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6">
-        <v>2024</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>2024</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="E7">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>2024</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>2024</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="E8">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8">
-        <v>2024</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>2024</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="E9">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>2024</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>2024</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10">
+        <v>36</v>
+      </c>
+      <c r="E10">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <v>2024</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>2024</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>2017</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
         <v>45</v>
       </c>
-      <c r="F11">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11">
-        <v>2017</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12">
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
         <v>2023</v>
       </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
         <v>2021</v>
       </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14">
-        <v>53</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14">
-        <v>2024</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>2024</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
         <v>58</v>
       </c>
-      <c r="F15">
-        <v>58</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
         <v>2019</v>
       </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16">
-        <v>59</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
         <v>2015</v>
       </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="E17">
         <v>66</v>
       </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
         <v>2021</v>
       </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18">
+        <v>56</v>
+      </c>
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18">
-        <v>2024</v>
-      </c>
-      <c r="I18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>2024</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19">
+        <v>56</v>
+      </c>
+      <c r="E19">
         <v>8</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19">
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
         <v>2019</v>
       </c>
-      <c r="I19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="E20">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20">
-        <v>2024</v>
-      </c>
-      <c r="I20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>2024</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21">
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
         <v>2023</v>
       </c>
-      <c r="I21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22">
+        <v>66</v>
+      </c>
+      <c r="E22">
         <v>20</v>
       </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22">
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
         <v>2023</v>
       </c>
-      <c r="I22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23">
+        <v>68</v>
+      </c>
+      <c r="E23">
         <v>23</v>
       </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23">
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23">
         <v>2023</v>
       </c>
-      <c r="I23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24">
+        <v>33</v>
+      </c>
+      <c r="E24">
         <v>28</v>
       </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24">
-        <v>2024</v>
-      </c>
-      <c r="I24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>2024</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25">
+        <v>73</v>
+      </c>
+      <c r="E25">
         <v>31</v>
       </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25">
-        <v>2024</v>
-      </c>
-      <c r="I25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>2024</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26">
+        <v>76</v>
+      </c>
+      <c r="E26">
         <v>36</v>
       </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26">
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26">
         <v>2021</v>
       </c>
-      <c r="I26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27">
+        <v>76</v>
+      </c>
+      <c r="E27">
         <v>37</v>
       </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27">
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27">
         <v>2023</v>
       </c>
-      <c r="I27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="E28">
         <v>44</v>
       </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28">
-        <v>2024</v>
-      </c>
-      <c r="I28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>2024</v>
+      </c>
+      <c r="H28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29">
         <v>48</v>
       </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29">
-        <v>2024</v>
-      </c>
-      <c r="I29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>2024</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30">
+        <v>84</v>
+      </c>
+      <c r="E30">
         <v>54</v>
       </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30">
-        <v>2024</v>
-      </c>
-      <c r="I30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>2024</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31">
+        <v>87</v>
+      </c>
+      <c r="E31">
         <v>57</v>
       </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31">
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
         <v>2017</v>
       </c>
-      <c r="I31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32">
+        <v>22</v>
+      </c>
+      <c r="E32">
         <v>61</v>
       </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33">
+        <v>92</v>
+      </c>
+      <c r="E33">
         <v>63</v>
       </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33">
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
         <v>2022</v>
       </c>
-      <c r="I33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34">
-        <v>2024</v>
-      </c>
-      <c r="I34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34">
+        <v>2024</v>
+      </c>
+      <c r="H34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35">
+        <v>96</v>
+      </c>
+      <c r="E35">
         <v>7</v>
       </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35">
-        <v>2024</v>
-      </c>
-      <c r="I35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35">
+        <v>2024</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36">
+        <v>25</v>
+      </c>
+      <c r="E36">
         <v>10</v>
       </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36">
-        <v>2024</v>
-      </c>
-      <c r="I36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36">
+        <v>2024</v>
+      </c>
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37">
+        <v>101</v>
+      </c>
+      <c r="E37">
         <v>13</v>
       </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37">
-        <v>2024</v>
-      </c>
-      <c r="I37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>2024</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38">
+        <v>48</v>
+      </c>
+      <c r="E38">
         <v>17</v>
       </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38">
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
         <v>2022</v>
       </c>
-      <c r="I38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39">
+        <v>68</v>
+      </c>
+      <c r="E39">
         <v>24</v>
       </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39">
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39">
         <v>2019</v>
       </c>
-      <c r="I39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40">
+        <v>73</v>
+      </c>
+      <c r="E40">
         <v>26</v>
       </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40">
-        <v>2024</v>
-      </c>
-      <c r="I40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40">
+        <v>2024</v>
+      </c>
+      <c r="H40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41">
+        <v>87</v>
+      </c>
+      <c r="E41">
         <v>29</v>
       </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41">
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41">
         <v>2019</v>
       </c>
-      <c r="I41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42">
+        <v>92</v>
+      </c>
+      <c r="E42">
         <v>33</v>
       </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42">
-        <v>2024</v>
-      </c>
-      <c r="I42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42">
+        <v>2024</v>
+      </c>
+      <c r="H42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43">
+        <v>84</v>
+      </c>
+      <c r="E43">
         <v>38</v>
       </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43">
-        <v>2024</v>
-      </c>
-      <c r="I43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <v>2024</v>
+      </c>
+      <c r="H43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44">
+        <v>113</v>
+      </c>
+      <c r="E44">
         <v>46</v>
       </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44">
-        <v>2024</v>
-      </c>
-      <c r="I44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44">
+        <v>2024</v>
+      </c>
+      <c r="H44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45">
+        <v>56</v>
+      </c>
+      <c r="E45">
         <v>47</v>
       </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>108</v>
-      </c>
-      <c r="I45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46">
+        <v>117</v>
+      </c>
+      <c r="E46">
         <v>51</v>
       </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46">
-        <v>2024</v>
-      </c>
-      <c r="I46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>2024</v>
+      </c>
+      <c r="H46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47">
+        <v>48</v>
+      </c>
+      <c r="E47">
         <v>55</v>
       </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47">
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47">
         <v>2018</v>
       </c>
-      <c r="I47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48">
+        <v>121</v>
+      </c>
+      <c r="E48">
         <v>62</v>
       </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48">
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48">
         <v>2022</v>
       </c>
-      <c r="I48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F49">
+        <v>124</v>
+      </c>
+      <c r="E49">
         <v>67</v>
       </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49">
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49">
         <v>2011</v>
       </c>
-      <c r="I49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50">
+        <v>56</v>
+      </c>
+      <c r="E50">
         <v>3</v>
       </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50">
-        <v>2024</v>
-      </c>
-      <c r="I50" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>2024</v>
+      </c>
+      <c r="H50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51">
+        <v>87</v>
+      </c>
+      <c r="E51">
         <v>5</v>
       </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51">
-        <v>2024</v>
-      </c>
-      <c r="I51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51">
+        <v>2024</v>
+      </c>
+      <c r="H51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52">
-        <v>2024</v>
-      </c>
-      <c r="I52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52">
+        <v>2024</v>
+      </c>
+      <c r="H52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53">
+        <v>68</v>
+      </c>
+      <c r="E53">
         <v>14</v>
       </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53">
-        <v>2024</v>
-      </c>
-      <c r="I53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53">
+        <v>2024</v>
+      </c>
+      <c r="H53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>116</v>
-      </c>
-      <c r="F54">
+        <v>96</v>
+      </c>
+      <c r="E54">
         <v>18</v>
       </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54">
-        <v>2024</v>
-      </c>
-      <c r="I54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54">
+        <v>2024</v>
+      </c>
+      <c r="H54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55">
         <v>22</v>
       </c>
-      <c r="E55" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55">
-        <v>2024</v>
-      </c>
-      <c r="I55" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>2024</v>
+      </c>
+      <c r="H55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56">
+        <v>101</v>
+      </c>
+      <c r="E56">
         <v>25</v>
       </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56">
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56">
         <v>2023</v>
       </c>
-      <c r="I56" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57">
+        <v>15</v>
+      </c>
+      <c r="E57">
         <v>30</v>
       </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57">
-        <v>2024</v>
-      </c>
-      <c r="I57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>2024</v>
+      </c>
+      <c r="H57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58">
+        <v>39</v>
+      </c>
+      <c r="E58">
         <v>34</v>
       </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58">
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58">
         <v>2015</v>
       </c>
-      <c r="I58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59">
+        <v>84</v>
+      </c>
+      <c r="E59">
         <v>40</v>
       </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59">
-        <v>2024</v>
-      </c>
-      <c r="I59" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59">
+        <v>2024</v>
+      </c>
+      <c r="H59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" t="s">
-        <v>165</v>
-      </c>
-      <c r="F60">
+        <v>140</v>
+      </c>
+      <c r="E60">
         <v>42</v>
       </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60">
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60">
         <v>2023</v>
       </c>
-      <c r="I60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" t="s">
-        <v>116</v>
-      </c>
-      <c r="F61">
+        <v>96</v>
+      </c>
+      <c r="E61">
         <v>49</v>
       </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61">
-        <v>2024</v>
-      </c>
-      <c r="I61" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>2024</v>
+      </c>
+      <c r="H61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62">
+        <v>66</v>
+      </c>
+      <c r="E62">
         <v>52</v>
       </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s">
-        <v>108</v>
-      </c>
-      <c r="I62" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
-      </c>
-      <c r="E63" t="s">
-        <v>87</v>
-      </c>
-      <c r="F63">
+        <v>73</v>
+      </c>
+      <c r="E63">
         <v>56</v>
       </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63">
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63">
         <v>2017</v>
       </c>
-      <c r="I63" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
-      </c>
-      <c r="E64" t="s">
-        <v>149</v>
-      </c>
-      <c r="F64">
+        <v>124</v>
+      </c>
+      <c r="E64">
         <v>60</v>
       </c>
-      <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64">
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64">
         <v>2019</v>
       </c>
-      <c r="I64" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65">
+        <v>68</v>
+      </c>
+      <c r="E65">
         <v>64</v>
       </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s">
-        <v>108</v>
-      </c>
-      <c r="I65" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
